--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_ContractProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_ContractProfile_AddNewProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89A7289-B1A3-4D61-B649-33A0A29E2695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116485D-65E4-45BE-860D-C119104F8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>dropdown_debtType_apfa</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
     <t>radio_button</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>BudgetAmount</t>
+  </si>
+  <si>
+    <t>J02</t>
   </si>
 </sst>
 </file>
@@ -281,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -292,6 +292,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,17 +580,17 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,80 +610,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -691,82 +692,82 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -786,23 +787,23 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="6" width="21.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,31 +814,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -851,13 +852,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -877,50 +878,50 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
